--- a/public/DataImport/USMAN.xlsx
+++ b/public/DataImport/USMAN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A52270B-60E1-4D3E-A3EE-7B1E1C2476D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C2E9C1-B24E-4A32-984D-7C10D23E87BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{E365E2AC-5A4F-4D3F-97B2-5CB8F6058CAB}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>JENIS PENGAJUAN</t>
   </si>
   <si>
-    <t>PN (8 DIGIT)</t>
-  </si>
-  <si>
     <t>NAMA</t>
   </si>
   <si>
@@ -1100,6 +1097,9 @@
   </si>
   <si>
     <t>PENGAJUAN USER SAP</t>
+  </si>
+  <si>
+    <t>PN</t>
   </si>
 </sst>
 </file>
@@ -1457,10 +1457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4FBDF3D-C65C-4337-8569-C6A6D85F0A11}">
-  <dimension ref="A1:T41"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,7 +1468,7 @@
     <col min="4" max="4" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1479,55 +1479,55 @@
         <v>24</v>
       </c>
       <c r="D1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>39</v>
       </c>
-      <c r="S1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1541,50 +1541,50 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>44</v>
-      </c>
-      <c r="M2" t="s">
-        <v>45</v>
       </c>
       <c r="N2" t="s">
         <v>21</v>
       </c>
       <c r="O2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P2">
+        <v>45261</v>
+      </c>
+      <c r="R2" t="s">
         <v>46</v>
       </c>
-      <c r="P2">
-        <v>45261</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>47</v>
-      </c>
-      <c r="S2" t="s">
-        <v>48</v>
       </c>
       <c r="T2">
         <f>COUNTIF(C:C, "Create User")</f>
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1598,50 +1598,50 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
         <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>53</v>
-      </c>
-      <c r="M3" t="s">
-        <v>54</v>
       </c>
       <c r="N3" t="s">
         <v>21</v>
       </c>
       <c r="O3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P3">
+        <v>45261</v>
+      </c>
+      <c r="R3" t="s">
         <v>46</v>
-      </c>
-      <c r="P3">
-        <v>45261</v>
-      </c>
-      <c r="R3" t="s">
-        <v>47</v>
       </c>
       <c r="T3">
         <f>COUNTA(C2:C9000)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1655,50 +1655,50 @@
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J4" t="s">
         <v>2</v>
       </c>
       <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L4" t="s">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>59</v>
-      </c>
-      <c r="M4" t="s">
-        <v>60</v>
       </c>
       <c r="N4" t="s">
         <v>21</v>
       </c>
       <c r="O4" t="s">
+        <v>45</v>
+      </c>
+      <c r="P4">
+        <v>45261</v>
+      </c>
+      <c r="R4" t="s">
         <v>46</v>
-      </c>
-      <c r="P4">
-        <v>45261</v>
-      </c>
-      <c r="R4" t="s">
-        <v>47</v>
       </c>
       <c r="T4">
         <f>COUNTIF(C:C, "Change Role")</f>
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1709,40 +1709,40 @@
         <v>17</v>
       </c>
       <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
+        <v>63</v>
+      </c>
+      <c r="K5" t="s">
         <v>64</v>
-      </c>
-      <c r="K5" t="s">
-        <v>65</v>
       </c>
       <c r="N5" t="s">
         <v>21</v>
       </c>
       <c r="O5" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5">
+        <v>45261</v>
+      </c>
+      <c r="R5" t="s">
         <v>46</v>
       </c>
-      <c r="P5">
-        <v>45261</v>
-      </c>
-      <c r="R5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1756,46 +1756,46 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F6" t="s">
         <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" t="s">
         <v>3</v>
       </c>
       <c r="K6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" t="s">
         <v>69</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="s">
         <v>70</v>
-      </c>
-      <c r="M6" t="s">
-        <v>71</v>
       </c>
       <c r="N6" t="s">
         <v>21</v>
       </c>
       <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6">
+        <v>45261</v>
+      </c>
+      <c r="R6" t="s">
         <v>46</v>
       </c>
-      <c r="P6">
-        <v>45261</v>
-      </c>
-      <c r="R6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1809,49 +1809,49 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
         <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H7" t="s">
         <v>13</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
       </c>
       <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" t="s">
         <v>75</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>76</v>
-      </c>
-      <c r="M7" t="s">
-        <v>77</v>
       </c>
       <c r="N7" t="s">
         <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7">
         <v>45261</v>
       </c>
       <c r="R7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1865,49 +1865,49 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s">
         <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
         <v>5</v>
       </c>
       <c r="K8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" t="s">
         <v>82</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>83</v>
-      </c>
-      <c r="M8" t="s">
-        <v>84</v>
       </c>
       <c r="N8" t="s">
         <v>21</v>
       </c>
       <c r="O8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P8">
         <v>45261</v>
       </c>
       <c r="R8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1918,43 +1918,43 @@
         <v>17</v>
       </c>
       <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
         <v>85</v>
-      </c>
-      <c r="E9" t="s">
-        <v>86</v>
       </c>
       <c r="F9" t="s">
         <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s">
         <v>6</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N9" t="s">
         <v>21</v>
       </c>
       <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9">
+        <v>45261</v>
+      </c>
+      <c r="R9" t="s">
         <v>46</v>
       </c>
-      <c r="P9">
-        <v>45261</v>
-      </c>
-      <c r="R9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1968,43 +1968,43 @@
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H10" t="s">
         <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J10" t="s">
         <v>7</v>
       </c>
       <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" t="s">
         <v>93</v>
       </c>
-      <c r="L10" t="s">
+      <c r="M10" t="s">
         <v>94</v>
-      </c>
-      <c r="M10" t="s">
-        <v>95</v>
       </c>
       <c r="N10" t="s">
         <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P10">
         <v>45261</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2015,43 +2015,43 @@
         <v>18</v>
       </c>
       <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
         <v>96</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
       </c>
       <c r="F11" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
         <v>98</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>99</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
         <v>100</v>
       </c>
-      <c r="J11" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="M11" t="s">
         <v>101</v>
-      </c>
-      <c r="M11" t="s">
-        <v>102</v>
       </c>
       <c r="N11" t="s">
         <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P11">
         <v>45261</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2062,46 +2062,46 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" t="s">
         <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>104</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" t="s">
         <v>105</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>106</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K12" t="s">
         <v>107</v>
       </c>
-      <c r="J12" t="s">
-        <v>103</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>108</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>109</v>
-      </c>
-      <c r="M12" t="s">
-        <v>110</v>
       </c>
       <c r="N12" t="s">
         <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P12">
         <v>45261</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2112,40 +2112,40 @@
         <v>17</v>
       </c>
       <c r="D13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" t="s">
         <v>111</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>112</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>113</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+      <c r="I13" t="s">
         <v>114</v>
       </c>
-      <c r="H13" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>115</v>
       </c>
-      <c r="K13" t="s">
+      <c r="N13" t="s">
         <v>116</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>117</v>
       </c>
-      <c r="O13" t="s">
+      <c r="P13">
+        <v>45261</v>
+      </c>
+      <c r="Q13" t="s">
         <v>118</v>
       </c>
-      <c r="P13">
-        <v>45261</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2156,49 +2156,49 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
         <v>120</v>
-      </c>
-      <c r="E14" t="s">
-        <v>121</v>
       </c>
       <c r="F14" t="s">
         <v>19</v>
       </c>
       <c r="G14" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
         <v>122</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>123</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
         <v>124</v>
       </c>
-      <c r="J14" t="s">
-        <v>120</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>125</v>
-      </c>
-      <c r="M14" t="s">
-        <v>126</v>
       </c>
       <c r="N14" t="s">
         <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P14">
         <v>45261</v>
       </c>
       <c r="R14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2209,46 +2209,46 @@
         <v>17</v>
       </c>
       <c r="D15" t="s">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s">
         <v>127</v>
-      </c>
-      <c r="E15" t="s">
-        <v>128</v>
       </c>
       <c r="F15" t="s">
         <v>19</v>
       </c>
       <c r="G15" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" t="s">
         <v>129</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>130</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
         <v>131</v>
       </c>
-      <c r="J15" t="s">
-        <v>127</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="M15" t="s">
         <v>132</v>
-      </c>
-      <c r="M15" t="s">
-        <v>133</v>
       </c>
       <c r="N15" t="s">
         <v>21</v>
       </c>
       <c r="O15" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15">
+        <v>45261</v>
+      </c>
+      <c r="R15" t="s">
         <v>46</v>
       </c>
-      <c r="P15">
-        <v>45261</v>
-      </c>
-      <c r="R15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2259,43 +2259,43 @@
         <v>17</v>
       </c>
       <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
         <v>134</v>
-      </c>
-      <c r="E16" t="s">
-        <v>135</v>
       </c>
       <c r="F16" t="s">
         <v>19</v>
       </c>
       <c r="G16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H16" t="s">
         <v>136</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>137</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>138</v>
       </c>
-      <c r="K16" t="s">
-        <v>139</v>
-      </c>
       <c r="M16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N16" t="s">
         <v>21</v>
       </c>
       <c r="O16" t="s">
+        <v>45</v>
+      </c>
+      <c r="P16">
+        <v>45261</v>
+      </c>
+      <c r="R16" t="s">
         <v>46</v>
       </c>
-      <c r="P16">
-        <v>45261</v>
-      </c>
-      <c r="R16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2306,43 +2306,43 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" t="s">
         <v>140</v>
-      </c>
-      <c r="E17" t="s">
-        <v>141</v>
       </c>
       <c r="F17" t="s">
         <v>19</v>
       </c>
       <c r="G17" t="s">
+        <v>141</v>
+      </c>
+      <c r="H17" t="s">
         <v>142</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>143</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>144</v>
       </c>
-      <c r="K17" t="s">
-        <v>145</v>
-      </c>
       <c r="M17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N17" t="s">
         <v>21</v>
       </c>
       <c r="O17" t="s">
+        <v>45</v>
+      </c>
+      <c r="P17">
+        <v>45261</v>
+      </c>
+      <c r="R17" t="s">
         <v>46</v>
       </c>
-      <c r="P17">
-        <v>45261</v>
-      </c>
-      <c r="R17" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2353,46 +2353,46 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" t="s">
         <v>146</v>
-      </c>
-      <c r="E18" t="s">
-        <v>147</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
       <c r="G18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H18" t="s">
         <v>148</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>149</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>150</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>151</v>
       </c>
-      <c r="K18" t="s">
+      <c r="M18" t="s">
         <v>152</v>
-      </c>
-      <c r="M18" t="s">
-        <v>153</v>
       </c>
       <c r="N18" t="s">
         <v>21</v>
       </c>
       <c r="O18" t="s">
+        <v>45</v>
+      </c>
+      <c r="P18">
+        <v>45261</v>
+      </c>
+      <c r="R18" t="s">
         <v>46</v>
       </c>
-      <c r="P18">
-        <v>45261</v>
-      </c>
-      <c r="R18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2403,43 +2403,43 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" t="s">
         <v>154</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>155</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>156</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>157</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>158</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
         <v>159</v>
       </c>
-      <c r="J19" t="s">
-        <v>154</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
         <v>160</v>
-      </c>
-      <c r="M19" t="s">
-        <v>161</v>
       </c>
       <c r="N19" t="s">
         <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19">
         <v>45261</v>
       </c>
     </row>
-    <row r="20" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2450,43 +2450,43 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" t="s">
         <v>162</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>163</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>164</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>165</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>166</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" t="s">
         <v>167</v>
       </c>
-      <c r="J20" t="s">
-        <v>162</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="M20" t="s">
         <v>168</v>
-      </c>
-      <c r="M20" t="s">
-        <v>169</v>
       </c>
       <c r="N20" t="s">
         <v>21</v>
       </c>
       <c r="O20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P20">
         <v>45261</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2497,49 +2497,49 @@
         <v>17</v>
       </c>
       <c r="D21" t="s">
+        <v>169</v>
+      </c>
+      <c r="E21" t="s">
         <v>170</v>
-      </c>
-      <c r="E21" t="s">
-        <v>171</v>
       </c>
       <c r="F21" t="s">
         <v>19</v>
       </c>
       <c r="G21" t="s">
+        <v>171</v>
+      </c>
+      <c r="H21" t="s">
         <v>172</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>173</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
         <v>174</v>
       </c>
-      <c r="J21" t="s">
-        <v>170</v>
-      </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>175</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>176</v>
-      </c>
-      <c r="M21" t="s">
-        <v>177</v>
       </c>
       <c r="N21" t="s">
         <v>21</v>
       </c>
       <c r="O21" t="s">
+        <v>45</v>
+      </c>
+      <c r="P21">
+        <v>45261</v>
+      </c>
+      <c r="R21" t="s">
         <v>46</v>
       </c>
-      <c r="P21">
-        <v>45261</v>
-      </c>
-      <c r="R21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2550,46 +2550,46 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" t="s">
         <v>178</v>
-      </c>
-      <c r="E22" t="s">
-        <v>179</v>
       </c>
       <c r="F22" t="s">
         <v>19</v>
       </c>
       <c r="G22" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" t="s">
         <v>180</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>181</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K22" t="s">
         <v>182</v>
       </c>
-      <c r="J22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="M22" t="s">
         <v>183</v>
-      </c>
-      <c r="M22" t="s">
-        <v>184</v>
       </c>
       <c r="N22" t="s">
         <v>21</v>
       </c>
       <c r="O22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P22">
+        <v>45261</v>
+      </c>
+      <c r="R22" t="s">
         <v>46</v>
       </c>
-      <c r="P22">
-        <v>45261</v>
-      </c>
-      <c r="R22" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2600,49 +2600,49 @@
         <v>17</v>
       </c>
       <c r="D23" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" t="s">
         <v>185</v>
-      </c>
-      <c r="E23" t="s">
-        <v>186</v>
       </c>
       <c r="F23" t="s">
         <v>19</v>
       </c>
       <c r="G23" t="s">
+        <v>186</v>
+      </c>
+      <c r="H23" t="s">
         <v>187</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>188</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
         <v>189</v>
       </c>
-      <c r="J23" t="s">
-        <v>185</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>190</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>191</v>
-      </c>
-      <c r="M23" t="s">
-        <v>192</v>
       </c>
       <c r="N23" t="s">
         <v>21</v>
       </c>
       <c r="O23" t="s">
+        <v>45</v>
+      </c>
+      <c r="P23">
+        <v>45261</v>
+      </c>
+      <c r="R23" t="s">
         <v>46</v>
       </c>
-      <c r="P23">
-        <v>45261</v>
-      </c>
-      <c r="R23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2653,49 +2653,49 @@
         <v>17</v>
       </c>
       <c r="D24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E24" t="s">
         <v>193</v>
-      </c>
-      <c r="E24" t="s">
-        <v>194</v>
       </c>
       <c r="F24" t="s">
         <v>19</v>
       </c>
       <c r="G24" t="s">
+        <v>194</v>
+      </c>
+      <c r="H24" t="s">
         <v>195</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>196</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
+        <v>192</v>
+      </c>
+      <c r="K24" t="s">
         <v>197</v>
       </c>
-      <c r="J24" t="s">
-        <v>193</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>198</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>199</v>
-      </c>
-      <c r="M24" t="s">
-        <v>200</v>
       </c>
       <c r="N24" t="s">
         <v>21</v>
       </c>
       <c r="O24" t="s">
+        <v>45</v>
+      </c>
+      <c r="P24">
+        <v>45261</v>
+      </c>
+      <c r="R24" t="s">
         <v>46</v>
       </c>
-      <c r="P24">
-        <v>45261</v>
-      </c>
-      <c r="R24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2706,46 +2706,46 @@
         <v>17</v>
       </c>
       <c r="D25" t="s">
+        <v>200</v>
+      </c>
+      <c r="E25" t="s">
         <v>201</v>
-      </c>
-      <c r="E25" t="s">
-        <v>202</v>
       </c>
       <c r="F25" t="s">
         <v>19</v>
       </c>
       <c r="G25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H25" t="s">
         <v>203</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
         <v>204</v>
       </c>
-      <c r="I25" t="s">
-        <v>197</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>205</v>
       </c>
-      <c r="K25" t="s">
+      <c r="M25" t="s">
+        <v>199</v>
+      </c>
+      <c r="N25" t="s">
+        <v>116</v>
+      </c>
+      <c r="O25" t="s">
+        <v>117</v>
+      </c>
+      <c r="P25">
+        <v>45261</v>
+      </c>
+      <c r="Q25" t="s">
         <v>206</v>
       </c>
-      <c r="M25" t="s">
-        <v>200</v>
-      </c>
-      <c r="N25" t="s">
-        <v>117</v>
-      </c>
-      <c r="O25" t="s">
-        <v>118</v>
-      </c>
-      <c r="P25">
-        <v>45261</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2756,49 +2756,49 @@
         <v>17</v>
       </c>
       <c r="D26" t="s">
+        <v>207</v>
+      </c>
+      <c r="E26" t="s">
         <v>208</v>
-      </c>
-      <c r="E26" t="s">
-        <v>209</v>
       </c>
       <c r="F26" t="s">
         <v>19</v>
       </c>
       <c r="G26" t="s">
+        <v>209</v>
+      </c>
+      <c r="H26" t="s">
         <v>210</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>211</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
+        <v>207</v>
+      </c>
+      <c r="K26" t="s">
         <v>212</v>
       </c>
-      <c r="J26" t="s">
-        <v>208</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>213</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>214</v>
-      </c>
-      <c r="M26" t="s">
-        <v>215</v>
       </c>
       <c r="N26" t="s">
         <v>21</v>
       </c>
       <c r="O26" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26">
+        <v>45261</v>
+      </c>
+      <c r="R26" t="s">
         <v>46</v>
       </c>
-      <c r="P26">
-        <v>45261</v>
-      </c>
-      <c r="R26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2806,49 +2806,49 @@
         <v>45261</v>
       </c>
       <c r="C27" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" t="s">
         <v>216</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>217</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" t="s">
         <v>218</v>
       </c>
-      <c r="F27" t="s">
-        <v>164</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>219</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>220</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K27" t="s">
         <v>221</v>
       </c>
-      <c r="J27" t="s">
-        <v>217</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="M27" t="s">
+        <v>76</v>
+      </c>
+      <c r="N27" t="s">
+        <v>116</v>
+      </c>
+      <c r="O27" t="s">
+        <v>117</v>
+      </c>
+      <c r="P27">
+        <v>45261</v>
+      </c>
+      <c r="Q27" t="s">
         <v>222</v>
       </c>
-      <c r="M27" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" t="s">
-        <v>117</v>
-      </c>
-      <c r="O27" t="s">
-        <v>118</v>
-      </c>
-      <c r="P27">
-        <v>45261</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2859,49 +2859,49 @@
         <v>17</v>
       </c>
       <c r="D28" t="s">
+        <v>223</v>
+      </c>
+      <c r="E28" t="s">
         <v>224</v>
-      </c>
-      <c r="E28" t="s">
-        <v>225</v>
       </c>
       <c r="F28" t="s">
         <v>19</v>
       </c>
       <c r="G28" t="s">
+        <v>225</v>
+      </c>
+      <c r="H28" t="s">
         <v>226</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>227</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
         <v>228</v>
       </c>
-      <c r="J28" t="s">
-        <v>224</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>229</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>230</v>
-      </c>
-      <c r="M28" t="s">
-        <v>231</v>
       </c>
       <c r="N28" t="s">
         <v>21</v>
       </c>
       <c r="O28" t="s">
+        <v>45</v>
+      </c>
+      <c r="P28">
+        <v>45261</v>
+      </c>
+      <c r="R28" t="s">
         <v>46</v>
       </c>
-      <c r="P28">
-        <v>45261</v>
-      </c>
-      <c r="R28" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2912,49 +2912,49 @@
         <v>17</v>
       </c>
       <c r="D29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29" t="s">
         <v>232</v>
-      </c>
-      <c r="E29" t="s">
-        <v>233</v>
       </c>
       <c r="F29" t="s">
         <v>19</v>
       </c>
       <c r="G29" t="s">
+        <v>233</v>
+      </c>
+      <c r="H29" t="s">
         <v>234</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>235</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
         <v>236</v>
       </c>
-      <c r="J29" t="s">
-        <v>232</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>237</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>238</v>
-      </c>
-      <c r="M29" t="s">
-        <v>239</v>
       </c>
       <c r="N29" t="s">
         <v>21</v>
       </c>
       <c r="O29" t="s">
+        <v>45</v>
+      </c>
+      <c r="P29">
+        <v>45261</v>
+      </c>
+      <c r="R29" t="s">
         <v>46</v>
       </c>
-      <c r="P29">
-        <v>45261</v>
-      </c>
-      <c r="R29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2965,46 +2965,46 @@
         <v>17</v>
       </c>
       <c r="D30" t="s">
+        <v>239</v>
+      </c>
+      <c r="E30" t="s">
         <v>240</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>112</v>
+      </c>
+      <c r="G30" t="s">
         <v>241</v>
       </c>
-      <c r="F30" t="s">
-        <v>113</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>242</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>243</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>244</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>245</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>246</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>116</v>
+      </c>
+      <c r="O30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30">
+        <v>45261</v>
+      </c>
+      <c r="Q30" t="s">
         <v>247</v>
       </c>
-      <c r="N30" t="s">
-        <v>117</v>
-      </c>
-      <c r="O30" t="s">
-        <v>118</v>
-      </c>
-      <c r="P30">
-        <v>45261</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3015,31 +3015,31 @@
         <v>18</v>
       </c>
       <c r="D31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E31" t="s">
         <v>249</v>
-      </c>
-      <c r="E31" t="s">
-        <v>250</v>
       </c>
       <c r="F31" t="s">
         <v>19</v>
       </c>
       <c r="G31" t="s">
+        <v>250</v>
+      </c>
+      <c r="H31" t="s">
         <v>251</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>252</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
         <v>253</v>
       </c>
-      <c r="J31" t="s">
-        <v>249</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>254</v>
-      </c>
-      <c r="M31" t="s">
-        <v>255</v>
       </c>
       <c r="N31" t="s">
         <v>21</v>
@@ -3048,7 +3048,7 @@
         <v>45261</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3059,46 +3059,46 @@
         <v>18</v>
       </c>
       <c r="D32" t="s">
+        <v>255</v>
+      </c>
+      <c r="E32" t="s">
         <v>256</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>257</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>258</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>259</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>260</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
         <v>261</v>
       </c>
-      <c r="J32" t="s">
-        <v>256</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>262</v>
       </c>
-      <c r="L32" t="s">
+      <c r="M32" t="s">
         <v>263</v>
-      </c>
-      <c r="M32" t="s">
-        <v>264</v>
       </c>
       <c r="N32" t="s">
         <v>21</v>
       </c>
       <c r="O32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P32">
         <v>45261</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3109,49 +3109,49 @@
         <v>18</v>
       </c>
       <c r="D33" t="s">
+        <v>264</v>
+      </c>
+      <c r="E33" t="s">
         <v>265</v>
-      </c>
-      <c r="E33" t="s">
-        <v>266</v>
       </c>
       <c r="F33" t="s">
         <v>19</v>
       </c>
       <c r="G33" t="s">
+        <v>266</v>
+      </c>
+      <c r="H33" t="s">
         <v>267</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>268</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>269</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>270</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>271</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>272</v>
       </c>
-      <c r="M33" t="s">
+      <c r="N33" t="s">
+        <v>116</v>
+      </c>
+      <c r="O33" t="s">
+        <v>117</v>
+      </c>
+      <c r="P33">
+        <v>45261</v>
+      </c>
+      <c r="Q33" t="s">
         <v>273</v>
       </c>
-      <c r="N33" t="s">
-        <v>117</v>
-      </c>
-      <c r="O33" t="s">
-        <v>118</v>
-      </c>
-      <c r="P33">
-        <v>45261</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3162,43 +3162,43 @@
         <v>18</v>
       </c>
       <c r="D34" t="s">
+        <v>274</v>
+      </c>
+      <c r="E34" t="s">
         <v>275</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>276</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>277</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>278</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>279</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
+        <v>274</v>
+      </c>
+      <c r="K34" t="s">
         <v>280</v>
       </c>
-      <c r="J34" t="s">
-        <v>275</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="M34" t="s">
         <v>281</v>
       </c>
-      <c r="M34" t="s">
-        <v>282</v>
-      </c>
       <c r="N34" t="s">
+        <v>116</v>
+      </c>
+      <c r="O34" t="s">
         <v>117</v>
       </c>
-      <c r="O34" t="s">
-        <v>118</v>
-      </c>
       <c r="P34">
         <v>45261</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3209,46 +3209,46 @@
         <v>18</v>
       </c>
       <c r="D35" t="s">
+        <v>282</v>
+      </c>
+      <c r="E35" t="s">
         <v>283</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>284</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>285</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>286</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>287</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" t="s">
         <v>288</v>
       </c>
-      <c r="J35" t="s">
-        <v>283</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>289</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>290</v>
-      </c>
-      <c r="M35" t="s">
-        <v>291</v>
       </c>
       <c r="N35" t="s">
         <v>21</v>
       </c>
       <c r="O35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P35">
         <v>45261</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3259,49 +3259,49 @@
         <v>17</v>
       </c>
       <c r="D36" t="s">
+        <v>291</v>
+      </c>
+      <c r="E36" t="s">
         <v>292</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>293</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>294</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>295</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>296</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
+        <v>291</v>
+      </c>
+      <c r="K36" t="s">
         <v>297</v>
       </c>
-      <c r="J36" t="s">
-        <v>292</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="M36" t="s">
         <v>298</v>
-      </c>
-      <c r="M36" t="s">
-        <v>299</v>
       </c>
       <c r="N36" t="s">
         <v>21</v>
       </c>
       <c r="O36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P36">
         <v>45261</v>
       </c>
       <c r="R36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3312,43 +3312,43 @@
         <v>18</v>
       </c>
       <c r="D37" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" t="s">
         <v>300</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>301</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>302</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>303</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>304</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>305</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>306</v>
       </c>
-      <c r="K37" t="s">
+      <c r="M37" t="s">
         <v>307</v>
-      </c>
-      <c r="M37" t="s">
-        <v>308</v>
       </c>
       <c r="N37" t="s">
         <v>21</v>
       </c>
       <c r="O37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P37">
         <v>45261</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3359,43 +3359,43 @@
         <v>18</v>
       </c>
       <c r="D38" t="s">
+        <v>308</v>
+      </c>
+      <c r="E38" t="s">
         <v>309</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>310</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>311</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>312</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>313</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
+        <v>308</v>
+      </c>
+      <c r="K38" t="s">
         <v>314</v>
       </c>
-      <c r="J38" t="s">
-        <v>309</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>315</v>
-      </c>
-      <c r="M38" t="s">
-        <v>316</v>
       </c>
       <c r="N38" t="s">
         <v>21</v>
       </c>
       <c r="O38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P38">
         <v>45261</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3406,46 +3406,46 @@
         <v>17</v>
       </c>
       <c r="D39" t="s">
+        <v>316</v>
+      </c>
+      <c r="E39" t="s">
         <v>317</v>
-      </c>
-      <c r="E39" t="s">
-        <v>318</v>
       </c>
       <c r="F39" t="s">
         <v>19</v>
       </c>
       <c r="G39" t="s">
+        <v>318</v>
+      </c>
+      <c r="H39" t="s">
         <v>319</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>320</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
+        <v>316</v>
+      </c>
+      <c r="K39" t="s">
         <v>321</v>
       </c>
-      <c r="J39" t="s">
-        <v>317</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="M39" t="s">
         <v>322</v>
-      </c>
-      <c r="M39" t="s">
-        <v>323</v>
       </c>
       <c r="N39" t="s">
         <v>21</v>
       </c>
       <c r="O39" t="s">
+        <v>45</v>
+      </c>
+      <c r="P39">
+        <v>45261</v>
+      </c>
+      <c r="R39" t="s">
         <v>46</v>
       </c>
-      <c r="P39">
-        <v>45261</v>
-      </c>
-      <c r="R39" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3456,49 +3456,49 @@
         <v>17</v>
       </c>
       <c r="D40" t="s">
+        <v>323</v>
+      </c>
+      <c r="E40" t="s">
         <v>324</v>
-      </c>
-      <c r="E40" t="s">
-        <v>325</v>
       </c>
       <c r="F40" t="s">
         <v>19</v>
       </c>
       <c r="G40" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" t="s">
         <v>326</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>327</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
+        <v>323</v>
+      </c>
+      <c r="K40" t="s">
         <v>328</v>
       </c>
-      <c r="J40" t="s">
-        <v>324</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>329</v>
       </c>
-      <c r="L40" t="s">
+      <c r="M40" t="s">
         <v>330</v>
-      </c>
-      <c r="M40" t="s">
-        <v>331</v>
       </c>
       <c r="N40" t="s">
         <v>21</v>
       </c>
       <c r="O40" t="s">
+        <v>45</v>
+      </c>
+      <c r="P40">
+        <v>45261</v>
+      </c>
+      <c r="R40" t="s">
         <v>46</v>
       </c>
-      <c r="P40">
-        <v>45261</v>
-      </c>
-      <c r="R40" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3509,48 +3509,51 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
+        <v>331</v>
+      </c>
+      <c r="E41" t="s">
         <v>332</v>
-      </c>
-      <c r="E41" t="s">
-        <v>333</v>
       </c>
       <c r="F41" t="s">
         <v>19</v>
       </c>
       <c r="G41" t="s">
+        <v>333</v>
+      </c>
+      <c r="H41" t="s">
         <v>334</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>335</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
+        <v>331</v>
+      </c>
+      <c r="K41" t="s">
         <v>336</v>
       </c>
-      <c r="J41" t="s">
-        <v>332</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>337</v>
       </c>
-      <c r="L41" t="s">
+      <c r="M41" t="s">
         <v>338</v>
-      </c>
-      <c r="M41" t="s">
-        <v>339</v>
       </c>
       <c r="N41" t="s">
         <v>21</v>
       </c>
       <c r="O41" t="s">
+        <v>45</v>
+      </c>
+      <c r="P41">
+        <v>45261</v>
+      </c>
+      <c r="R41" t="s">
         <v>46</v>
       </c>
-      <c r="P41">
-        <v>45261</v>
-      </c>
-      <c r="R41" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    </row>
+    <row r="42" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="44" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
